--- a/江西/导出模板/中长期总体合同分析结果.xlsx
+++ b/江西/导出模板/中长期总体合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE261584-B40D-45C0-B1AA-CCDF0597B6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDADE030-DF1E-488A-AC6D-CB9F9EB92836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -180,6 +183,42 @@
   <si>
     <t>占比（%）</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中长期总体</t>
+  </si>
+  <si>
+    <t>市场化</t>
+  </si>
+  <si>
+    <t>市场化,年度双边协商</t>
+  </si>
+  <si>
+    <t>市场化,月度交易</t>
+  </si>
+  <si>
+    <t>市场化,月内连续融合</t>
+  </si>
+  <si>
+    <t>市场化,d-3日24时段滚动撮合</t>
+  </si>
+  <si>
+    <t>市场化,省间外送</t>
+  </si>
+  <si>
+    <t>代理购电</t>
+  </si>
+  <si>
+    <t>代理购电,年度代理购电挂牌</t>
+  </si>
+  <si>
+    <t>代理购电,月度交易</t>
+  </si>
+  <si>
+    <t>代理购电,月内连续融合</t>
+  </si>
+  <si>
+    <t>代理购电,d-3日24时段滚动撮合</t>
   </si>
 </sst>
 </file>
@@ -187,7 +226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -257,20 +296,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +319,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +406,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +662,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>2350.6768635419357</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2365.4276538345425</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>-14.750790292606876</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>52531.63</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>447.47837893892421</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>450.28636153771407</v>
       </c>
     </row>
@@ -625,867 +732,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>11590607.220709674</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>491958.68844623648</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>531447.35344623658</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>567413.22344623657</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>433098.21944623662</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>443322.23544623656</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>409371.75244623655</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>573683.67144623655</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>409567.45844623656</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>490984.25444623653</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>412882.56344623648</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>579667.41844623652</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>573223.71844623657</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>532319.24744623655</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>440427.93344623654</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>414497.80844623654</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>411782.97644623648</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>492393.32044623652</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>506492.44844623655</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>565515.67444623658</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>486365.99144623661</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>448968.44044623652</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>442794.35544623656</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>441165.48944623658</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>491262.97744623653</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>25433.570000000003</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1083.1916666666666</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1157.9216666666666</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1206.1416666666669</v>
+      </c>
+      <c r="H3" s="1">
+        <v>994.10166666666669</v>
+      </c>
+      <c r="I3" s="1">
+        <v>996.79166666666663</v>
+      </c>
+      <c r="J3" s="1">
+        <v>989.36166666666668</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1163.6816666666668</v>
+      </c>
+      <c r="L3" s="1">
+        <v>899.19166666666661</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1084.6016666666665</v>
+      </c>
+      <c r="N3" s="1">
+        <v>974.10166666666669</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1161.3716666666669</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1016.1916666666666</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1124.4516666666666</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1030.1816666666668</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1029.0116666666665</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1071.3916666666669</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1093.3716666666667</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1084.2216666666668</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1145.9316666666666</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1037.9416666666666</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1039.4816666666668</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>931.37166666666656</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1059.5916666666667</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1059.9716666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>455.72081389713173</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>454.175104540966</v>
+      </c>
+      <c r="F4" s="1">
+        <v>458.96658534434823</v>
+      </c>
+      <c r="G4" s="1">
+        <v>470.4366320536447</v>
+      </c>
+      <c r="H4" s="1">
+        <v>435.66793414446539</v>
+      </c>
+      <c r="I4" s="1">
+        <v>444.74913893364868</v>
+      </c>
+      <c r="J4" s="1">
+        <v>413.77361407732923</v>
+      </c>
+      <c r="K4" s="1">
+        <v>492.99021191039054</v>
+      </c>
+      <c r="L4" s="1">
+        <v>455.48404598156111</v>
+      </c>
+      <c r="M4" s="1">
+        <v>452.68624374807644</v>
+      </c>
+      <c r="N4" s="1">
+        <v>423.85982652006186</v>
+      </c>
+      <c r="O4" s="1">
+        <v>499.12309304908399</v>
+      </c>
+      <c r="P4" s="1">
+        <v>564.09015862778836</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>473.40340472280855</v>
+      </c>
+      <c r="R4" s="1">
+        <v>427.52453057266905</v>
+      </c>
+      <c r="S4" s="1">
+        <v>402.8115733507102</v>
+      </c>
+      <c r="T4" s="1">
+        <v>384.34401653261233</v>
+      </c>
+      <c r="U4" s="1">
+        <v>450.34395481216654</v>
+      </c>
+      <c r="V4" s="1">
+        <v>467.14842916153663</v>
+      </c>
+      <c r="W4" s="1">
+        <v>493.49860109131282</v>
+      </c>
+      <c r="X4" s="1">
+        <v>468.58701896821754</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>431.9156891780068</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>475.42175835236196</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>416.35424600316463</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>463.46802739655288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>463.28893123913906</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.24999999999994</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.34999999999997</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.79999999999995</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>667.99999999999989</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-7.5681173420073264</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>108.87510454096599</v>
+      </c>
+      <c r="F6" s="1">
+        <v>157.21658534434823</v>
+      </c>
+      <c r="G6" s="1">
+        <v>185.6866320536447</v>
+      </c>
+      <c r="H6" s="1">
+        <v>182.91793414446536</v>
+      </c>
+      <c r="I6" s="1">
+        <v>182.49913893364868</v>
+      </c>
+      <c r="J6" s="1">
+        <v>111.02361407732917</v>
+      </c>
+      <c r="K6" s="1">
+        <v>91.940211910390644</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-33.765954018438947</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-76.063756251923564</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-85.390173479938085</v>
+      </c>
+      <c r="O6" s="1">
+        <v>50.773093049084025</v>
+      </c>
+      <c r="P6" s="1">
+        <v>164.89015862778831</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>179.40340472280855</v>
+      </c>
+      <c r="R6" s="1">
+        <v>112.52453057266905</v>
+      </c>
+      <c r="S6" s="1">
+        <v>26.661573350710171</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-93.455983467387625</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-135.15604518783346</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-200.85157083846326</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-262.75139890868718</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-280.91298103178246</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-310.0843108219932</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-194.32824164763804</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-139.01825399683531</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>34.318027396552907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>11916161.414709678</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>454.175104540966</v>
-      </c>
-      <c r="F3" s="2">
-        <v>458.96658534434823</v>
-      </c>
-      <c r="G3" s="2">
-        <v>470.4366320536447</v>
-      </c>
-      <c r="H3" s="2">
-        <v>435.66793414446539</v>
-      </c>
-      <c r="I3" s="2">
-        <v>444.74913893364868</v>
-      </c>
-      <c r="J3" s="2">
-        <v>413.77361407732923</v>
-      </c>
-      <c r="K3" s="2">
-        <v>492.99021191039054</v>
-      </c>
-      <c r="L3" s="2">
-        <v>455.48404598156111</v>
-      </c>
-      <c r="M3" s="2">
-        <v>452.68624374807644</v>
-      </c>
-      <c r="N3" s="2">
-        <v>423.85982652006186</v>
-      </c>
-      <c r="O3" s="2">
-        <v>499.12309304908399</v>
-      </c>
-      <c r="P3" s="2">
-        <v>564.09015862778836</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>473.40340472280855</v>
-      </c>
-      <c r="R3" s="2">
-        <v>427.52453057266905</v>
-      </c>
-      <c r="S3" s="2">
-        <v>402.8115733507102</v>
-      </c>
-      <c r="T3" s="2">
-        <v>384.34401653261233</v>
-      </c>
-      <c r="U3" s="2">
-        <v>450.34395481216654</v>
-      </c>
-      <c r="V3" s="2">
-        <v>467.14842916153663</v>
-      </c>
-      <c r="W3" s="2">
-        <v>493.49860109131282</v>
-      </c>
-      <c r="X3" s="2">
-        <v>468.58701896821754</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>431.9156891780068</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>475.42175835236196</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>416.35424600316463</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>463.46802739655288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>463.28893123913906</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>526453.0674462365</v>
+      </c>
+      <c r="F7" s="1">
+        <v>514143.57344623655</v>
+      </c>
+      <c r="G7" s="1">
+        <v>566075.89244623657</v>
+      </c>
+      <c r="H7" s="1">
+        <v>553438.57744623651</v>
+      </c>
+      <c r="I7" s="1">
+        <v>616589.70644623658</v>
+      </c>
+      <c r="J7" s="1">
+        <v>557555.54744623648</v>
+      </c>
+      <c r="K7" s="1">
+        <v>423798.87244623655</v>
+      </c>
+      <c r="L7" s="1">
+        <v>411270.26144623652</v>
+      </c>
+      <c r="M7" s="1">
+        <v>472495.2904462365</v>
+      </c>
+      <c r="N7" s="1">
+        <v>540212.56044623652</v>
+      </c>
+      <c r="O7" s="1">
+        <v>486740.17044623656</v>
+      </c>
+      <c r="P7" s="1">
+        <v>515964.93344623654</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>547941.91644623666</v>
+      </c>
+      <c r="R7" s="1">
+        <v>352154.15844623651</v>
+      </c>
+      <c r="S7" s="1">
+        <v>542787.8464462366</v>
+      </c>
+      <c r="T7" s="1">
+        <v>493567.47244623653</v>
+      </c>
+      <c r="U7" s="1">
+        <v>497610.43144623656</v>
+      </c>
+      <c r="V7" s="1">
+        <v>453415.21044623654</v>
+      </c>
+      <c r="W7" s="1">
+        <v>541613.27944623656</v>
+      </c>
+      <c r="X7" s="1">
+        <v>487557.2314462366</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>439985.38844623649</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>395482.08744623658</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>572638.31344623654</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>406669.62544623658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>27098.06</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1170.3716666666667</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1125.8316666666667</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1259.8716666666669</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1169.2616666666668</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1202.4116666666666</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1165.4816666666666</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1084.5416666666667</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1036.2816666666668</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1114.8516666666665</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1172.2616666666668</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1222.1616666666666</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1211.7016666666668</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1186.5216666666665</v>
+      </c>
+      <c r="R8" s="1">
+        <v>900.87166666666667</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1150.4916666666668</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1067.2916666666667</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1057.1016666666667</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1111.9916666666666</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1108.6616666666664</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1163.6716666666666</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>939.64166666666665</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1157.2216666666668</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1176.6816666666666</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1142.8816666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>439.74223301260969</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.24999999999994</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.34999999999997</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.79999999999995</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>667.99999999999989</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>25433.570000000003</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1083.1916666666666</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1157.9216666666666</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1206.1416666666669</v>
-      </c>
-      <c r="H5" s="2">
-        <v>994.10166666666669</v>
-      </c>
-      <c r="I5" s="2">
-        <v>996.79166666666663</v>
-      </c>
-      <c r="J5" s="2">
-        <v>989.36166666666668</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1163.6816666666668</v>
-      </c>
-      <c r="L5" s="2">
-        <v>899.19166666666661</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1084.6016666666665</v>
-      </c>
-      <c r="N5" s="2">
-        <v>974.10166666666669</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1161.3716666666669</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1016.1916666666666</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1124.4516666666666</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1030.1816666666668</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1029.0116666666665</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1071.3916666666669</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1093.3716666666667</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1084.2216666666668</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1145.9316666666666</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1037.9416666666666</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>1039.4816666666668</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>931.37166666666656</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1059.5916666666667</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1059.9716666666668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-7.5681173420073264</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>449.81699612194689</v>
+      </c>
+      <c r="F9" s="1">
+        <v>456.67890562049968</v>
+      </c>
+      <c r="G9" s="1">
+        <v>449.31234460089439</v>
+      </c>
+      <c r="H9" s="1">
+        <v>473.3231176764566</v>
+      </c>
+      <c r="I9" s="1">
+        <v>512.79418150985725</v>
+      </c>
+      <c r="J9" s="1">
+        <v>478.39066318466604</v>
+      </c>
+      <c r="K9" s="1">
+        <v>390.76310802219359</v>
+      </c>
+      <c r="L9" s="1">
+        <v>396.87111590919119</v>
+      </c>
+      <c r="M9" s="1">
+        <v>423.81897482287172</v>
+      </c>
+      <c r="N9" s="1">
+        <v>460.82933171595914</v>
+      </c>
+      <c r="O9" s="1">
+        <v>398.26168969427385</v>
+      </c>
+      <c r="P9" s="1">
+        <v>425.81845650640338</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>461.8052344426103</v>
+      </c>
+      <c r="R9" s="1">
+        <v>390.90380070365535</v>
+      </c>
+      <c r="S9" s="1">
+        <v>471.78772534603598</v>
+      </c>
+      <c r="T9" s="1">
+        <v>462.44853947724675</v>
+      </c>
+      <c r="U9" s="1">
+        <v>470.73091182926578</v>
+      </c>
+      <c r="V9" s="1">
+        <v>407.75054709304169</v>
+      </c>
+      <c r="W9" s="1">
+        <v>488.52891349140481</v>
+      </c>
+      <c r="X9" s="1">
+        <v>418.98178447778366</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>468.24806099442503</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>341.75136781305503</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>486.65525236610574</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>355.82828678346976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>438.08247068054311</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>108.87510454096599</v>
-      </c>
-      <c r="F6" s="2">
-        <v>157.21658534434823</v>
-      </c>
-      <c r="G6" s="2">
-        <v>185.6866320536447</v>
-      </c>
-      <c r="H6" s="2">
-        <v>182.91793414446536</v>
-      </c>
-      <c r="I6" s="2">
-        <v>182.49913893364868</v>
-      </c>
-      <c r="J6" s="2">
-        <v>111.02361407732917</v>
-      </c>
-      <c r="K6" s="2">
-        <v>91.940211910390644</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-33.765954018438947</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-76.063756251923564</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-85.390173479938085</v>
-      </c>
-      <c r="O6" s="2">
-        <v>50.773093049084025</v>
-      </c>
-      <c r="P6" s="2">
-        <v>164.89015862778831</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>179.40340472280855</v>
-      </c>
-      <c r="R6" s="2">
-        <v>112.52453057266905</v>
-      </c>
-      <c r="S6" s="2">
-        <v>26.661573350710171</v>
-      </c>
-      <c r="T6" s="2">
-        <v>-93.455983467387625</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-135.15604518783346</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-200.85157083846326</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-262.75139890868718</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-280.91298103178246</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-310.0843108219932</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-194.32824164763804</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-139.01825399683531</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>34.318027396552907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>11916161.414709678</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>526453.0674462365</v>
-      </c>
-      <c r="F7" s="2">
-        <v>514143.57344623655</v>
-      </c>
-      <c r="G7" s="2">
-        <v>566075.89244623657</v>
-      </c>
-      <c r="H7" s="2">
-        <v>553438.57744623651</v>
-      </c>
-      <c r="I7" s="2">
-        <v>616589.70644623658</v>
-      </c>
-      <c r="J7" s="2">
-        <v>557555.54744623648</v>
-      </c>
-      <c r="K7" s="2">
-        <v>423798.87244623655</v>
-      </c>
-      <c r="L7" s="2">
-        <v>411270.26144623652</v>
-      </c>
-      <c r="M7" s="2">
-        <v>472495.2904462365</v>
-      </c>
-      <c r="N7" s="2">
-        <v>540212.56044623652</v>
-      </c>
-      <c r="O7" s="2">
-        <v>486740.17044623656</v>
-      </c>
-      <c r="P7" s="2">
-        <v>515964.93344623654</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>547941.91644623666</v>
-      </c>
-      <c r="R7" s="2">
-        <v>352154.15844623651</v>
-      </c>
-      <c r="S7" s="2">
-        <v>542787.8464462366</v>
-      </c>
-      <c r="T7" s="2">
-        <v>493567.47244623653</v>
-      </c>
-      <c r="U7" s="2">
-        <v>497610.43144623656</v>
-      </c>
-      <c r="V7" s="2">
-        <v>453415.21044623654</v>
-      </c>
-      <c r="W7" s="2">
-        <v>541613.27944623656</v>
-      </c>
-      <c r="X7" s="2">
-        <v>487557.2314462366</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>439985.38844623649</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>395482.08744623658</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>572638.31344623654</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>406669.62544623658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>439.74223301260969</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>449.81699612194689</v>
-      </c>
-      <c r="F8" s="2">
-        <v>456.67890562049968</v>
-      </c>
-      <c r="G8" s="2">
-        <v>449.31234460089439</v>
-      </c>
-      <c r="H8" s="2">
-        <v>473.3231176764566</v>
-      </c>
-      <c r="I8" s="2">
-        <v>512.79418150985725</v>
-      </c>
-      <c r="J8" s="2">
-        <v>478.39066318466604</v>
-      </c>
-      <c r="K8" s="2">
-        <v>390.76310802219359</v>
-      </c>
-      <c r="L8" s="2">
-        <v>396.87111590919119</v>
-      </c>
-      <c r="M8" s="2">
-        <v>423.81897482287172</v>
-      </c>
-      <c r="N8" s="2">
-        <v>460.82933171595914</v>
-      </c>
-      <c r="O8" s="2">
-        <v>398.26168969427385</v>
-      </c>
-      <c r="P8" s="2">
-        <v>425.81845650640338</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>461.8052344426103</v>
-      </c>
-      <c r="R8" s="2">
-        <v>390.90380070365535</v>
-      </c>
-      <c r="S8" s="2">
-        <v>471.78772534603598</v>
-      </c>
-      <c r="T8" s="2">
-        <v>462.44853947724675</v>
-      </c>
-      <c r="U8" s="2">
-        <v>470.73091182926578</v>
-      </c>
-      <c r="V8" s="2">
-        <v>407.75054709304169</v>
-      </c>
-      <c r="W8" s="2">
-        <v>488.52891349140481</v>
-      </c>
-      <c r="X8" s="2">
-        <v>418.98178447778366</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>468.24806099442503</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>341.75136781305503</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>486.65525236610574</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>355.82828678346976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>438.08247068054311</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>401.95542117870104</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>614.33510776059984</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>490.43998800494393</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>318.33636603895837</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>426.35717587910358</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>433.56612211221091</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>425.12338441589338</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>581.11108571153295</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>432.70079609968849</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>488.96790503326741</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>378.63531029257297</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>374.96027506926072</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>513.21565278715423</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>506.41007106901185</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>512.90381731302818</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>446.39769246799688</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>325.55917058325588</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>380.51347312315471</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>310.03009408151564</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>330.29204195789629</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>341.15520289949808</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>511.94369892086735</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>516.65110758148978</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>452.47467018358947</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>27098.06</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>1170.3716666666667</v>
-      </c>
-      <c r="F10">
-        <v>1125.8316666666667</v>
-      </c>
-      <c r="G10">
-        <v>1259.8716666666669</v>
-      </c>
-      <c r="H10">
-        <v>1169.2616666666668</v>
-      </c>
-      <c r="I10">
-        <v>1202.4116666666666</v>
-      </c>
-      <c r="J10">
-        <v>1165.4816666666666</v>
-      </c>
-      <c r="K10">
-        <v>1084.5416666666667</v>
-      </c>
-      <c r="L10">
-        <v>1036.2816666666668</v>
-      </c>
-      <c r="M10">
-        <v>1114.8516666666665</v>
-      </c>
-      <c r="N10">
-        <v>1172.2616666666668</v>
-      </c>
-      <c r="O10">
-        <v>1222.1616666666666</v>
-      </c>
-      <c r="P10">
-        <v>1211.7016666666668</v>
-      </c>
-      <c r="Q10">
-        <v>1186.5216666666665</v>
-      </c>
-      <c r="R10">
-        <v>900.87166666666667</v>
-      </c>
-      <c r="S10">
-        <v>1150.4916666666668</v>
-      </c>
-      <c r="T10">
-        <v>1067.2916666666667</v>
-      </c>
-      <c r="U10">
-        <v>1057.1016666666667</v>
-      </c>
-      <c r="V10">
-        <v>1111.9916666666666</v>
-      </c>
-      <c r="W10">
-        <v>1108.6616666666664</v>
-      </c>
-      <c r="X10">
-        <v>1163.6716666666666</v>
-      </c>
-      <c r="Y10">
-        <v>939.64166666666665</v>
-      </c>
-      <c r="Z10">
-        <v>1157.2216666666668</v>
-      </c>
-      <c r="AA10">
-        <v>1176.6816666666666</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1142.8816666666667</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>1.6597623320665775</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>47.861574943245841</v>
@@ -1556,7 +1663,7 @@
       <c r="AA11">
         <v>-29.99585521538404</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-96.646383400119703</v>
       </c>
     </row>
@@ -1579,440 +1686,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>11590607.220709674</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>491958.68844623648</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>531447.35344623658</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>567413.22344623657</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>433098.21944623662</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>443322.23544623656</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>409371.75244623655</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>573683.67144623655</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>409567.45844623656</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>490984.25444623653</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>412882.56344623648</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>579667.41844623652</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>573223.71844623657</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>532319.24744623655</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>440427.93344623654</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>414497.80844623654</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>411782.97644623648</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>492393.32044623652</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>506492.44844623655</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>565515.67444623658</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>486365.99144623661</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>448968.44044623652</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>442794.35544623656</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>441165.48944623658</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>491262.97744623653</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>11783091.462895831</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>374026.08250000002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>349402.86291666667</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>343448.83958333341</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>251259.19625000004</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>261408.61458333331</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>299529.24458333338</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>466694.53241666663</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>439929.5229166667</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>573483.13124999986</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>496061.27374999993</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>520700.98675000004</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>405663.71333333338</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>330588.78999999998</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>324507.22500000003</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>387062.73841666663</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>511910.93833333341</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>640169.11083333334</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>724260.07333333336</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>866610.82291666663</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>777937.27916666667</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>771295.39666666673</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>623786.17374999996</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>588468.07289583329</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>454886.84075000003</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>117932.60594623646</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>182044.49052956991</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>223964.38386290317</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>181839.02319623658</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>181913.62086290325</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>109842.50786290318</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>106989.13902956992</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-30362.064470430138</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-82498.876803763327</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-83178.710303763452</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>58966.431696236483</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>167560.00511290319</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>201730.45744623657</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>115920.7084462365</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>27435.070029569906</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>-100127.96188709693</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-147775.79038709681</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-217767.62488709681</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-301095.14847043005</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-291571.28772043006</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-322326.95622043021</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-180991.8183037634</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-147302.58344959671</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>36376.136696236499</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>11916161.414709678</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>526453.0674462365</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>514143.57344623655</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>566075.89244623657</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>553438.57744623651</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>616589.70644623658</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>557555.54744623648</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>423798.87244623655</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>411270.26144623652</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>472495.2904462365</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>540212.56044623652</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>486740.17044623656</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>515964.93344623654</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>547941.91644623666</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>352154.15844623651</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>542787.8464462366</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>493567.47244623653</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>497610.43144623656</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>453415.21044623654</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>541613.27944623656</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>487557.2314462366</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>439985.38844623649</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>395482.08744623658</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>572638.31344623654</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>406669.62544623658</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>11871185.075449599</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>470437.23621061828</v>
@@ -2083,16 +2190,16 @@
       <c r="AA6">
         <v>607933.88635416667</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>517125.00518387102</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>56015.831235618214</v>
@@ -2163,12 +2270,12 @@
       <c r="AA7">
         <v>-35295.572907930124</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-110455.37973763444</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2296,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>25433.570000000003</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1083.1916666666666</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>1157.9216666666666</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>1206.1416666666669</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>994.10166666666669</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>996.79166666666663</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>989.36166666666668</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>1163.6816666666668</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>899.19166666666661</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>1084.6016666666665</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>974.10166666666669</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>1161.3716666666669</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>1016.1916666666666</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>1124.4516666666666</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>1030.1816666666668</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>1029.0116666666665</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>1071.3916666666669</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>1093.3716666666667</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>1084.2216666666668</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>1145.9316666666666</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>1037.9416666666666</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>1039.4816666666668</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>931.37166666666656</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>1059.5916666666667</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>1059.9716666666668</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>455.72081389713173</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>454.175104540966</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>458.96658534434823</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>470.4366320536447</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>435.66793414446539</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>444.74913893364868</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>413.77361407732923</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>492.99021191039054</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>455.48404598156111</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>452.68624374807644</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>423.85982652006186</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>499.12309304908399</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>564.09015862778836</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>473.40340472280855</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>427.52453057266905</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>402.8115733507102</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>384.34401653261233</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>450.34395481216654</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>467.14842916153663</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>493.49860109131282</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>468.58701896821754</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>431.9156891780068</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>475.42175835236196</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>416.35424600316463</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>463.46802739655288</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>463.28893123913906</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75000000000003</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.75000000000006</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.24999999999994</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.34999999999997</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15000000000003</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.79999999999995</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.5</v>
+      </c>
+      <c r="V4" s="1">
+        <v>667.99999999999989</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>27098.06</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1170.3716666666667</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1125.8316666666667</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1259.8716666666669</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1169.2616666666668</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1202.4116666666666</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1165.4816666666666</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1084.5416666666667</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1036.2816666666668</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1114.8516666666665</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1172.2616666666668</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1222.1616666666666</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1211.7016666666668</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1186.5216666666665</v>
+      </c>
+      <c r="R5" s="1">
+        <v>900.87166666666667</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1150.4916666666668</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1067.2916666666667</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1057.1016666666667</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1111.9916666666666</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1108.6616666666664</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1163.6716666666666</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>939.64166666666665</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1157.2216666666668</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1176.6816666666666</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1142.8816666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>439.74223301260969</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.75000000000006</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.24999999999994</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.34999999999997</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15000000000003</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.79999999999995</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.5</v>
-      </c>
-      <c r="V4" s="2">
-        <v>667.99999999999989</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>449.81699612194689</v>
+      </c>
+      <c r="F6" s="1">
+        <v>456.67890562049968</v>
+      </c>
+      <c r="G6" s="1">
+        <v>449.31234460089439</v>
+      </c>
+      <c r="H6" s="1">
+        <v>473.3231176764566</v>
+      </c>
+      <c r="I6" s="1">
+        <v>512.79418150985725</v>
+      </c>
+      <c r="J6" s="1">
+        <v>478.39066318466604</v>
+      </c>
+      <c r="K6" s="1">
+        <v>390.76310802219359</v>
+      </c>
+      <c r="L6" s="1">
+        <v>396.87111590919119</v>
+      </c>
+      <c r="M6" s="1">
+        <v>423.81897482287172</v>
+      </c>
+      <c r="N6" s="1">
+        <v>460.82933171595914</v>
+      </c>
+      <c r="O6" s="1">
+        <v>398.26168969427385</v>
+      </c>
+      <c r="P6" s="1">
+        <v>425.81845650640338</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>461.8052344426103</v>
+      </c>
+      <c r="R6" s="1">
+        <v>390.90380070365535</v>
+      </c>
+      <c r="S6" s="1">
+        <v>471.78772534603598</v>
+      </c>
+      <c r="T6" s="1">
+        <v>462.44853947724675</v>
+      </c>
+      <c r="U6" s="1">
+        <v>470.73091182926578</v>
+      </c>
+      <c r="V6" s="1">
+        <v>407.75054709304169</v>
+      </c>
+      <c r="W6" s="1">
+        <v>488.52891349140481</v>
+      </c>
+      <c r="X6" s="1">
+        <v>418.98178447778366</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>468.24806099442503</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>341.75136781305503</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>486.65525236610574</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>355.82828678346976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>27098.06</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1170.3716666666667</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1125.8316666666667</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1259.8716666666669</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1169.2616666666668</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1202.4116666666666</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1165.4816666666666</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1084.5416666666667</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1036.2816666666668</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1114.8516666666665</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1172.2616666666668</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1222.1616666666666</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1211.7016666666668</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1186.5216666666665</v>
-      </c>
-      <c r="R5" s="2">
-        <v>900.87166666666667</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1150.4916666666668</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1067.2916666666667</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1057.1016666666667</v>
-      </c>
-      <c r="V5" s="2">
-        <v>1111.9916666666666</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1108.6616666666664</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1163.6716666666666</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>939.64166666666665</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1157.2216666666668</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1176.6816666666666</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1142.8816666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>439.74223301260969</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>449.81699612194689</v>
-      </c>
-      <c r="F6" s="2">
-        <v>456.67890562049968</v>
-      </c>
-      <c r="G6" s="2">
-        <v>449.31234460089439</v>
-      </c>
-      <c r="H6" s="2">
-        <v>473.3231176764566</v>
-      </c>
-      <c r="I6" s="2">
-        <v>512.79418150985725</v>
-      </c>
-      <c r="J6" s="2">
-        <v>478.39066318466604</v>
-      </c>
-      <c r="K6" s="2">
-        <v>390.76310802219359</v>
-      </c>
-      <c r="L6" s="2">
-        <v>396.87111590919119</v>
-      </c>
-      <c r="M6" s="2">
-        <v>423.81897482287172</v>
-      </c>
-      <c r="N6" s="2">
-        <v>460.82933171595914</v>
-      </c>
-      <c r="O6" s="2">
-        <v>398.26168969427385</v>
-      </c>
-      <c r="P6" s="2">
-        <v>425.81845650640338</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>461.8052344426103</v>
-      </c>
-      <c r="R6" s="2">
-        <v>390.90380070365535</v>
-      </c>
-      <c r="S6" s="2">
-        <v>471.78772534603598</v>
-      </c>
-      <c r="T6" s="2">
-        <v>462.44853947724675</v>
-      </c>
-      <c r="U6" s="2">
-        <v>470.73091182926578</v>
-      </c>
-      <c r="V6" s="2">
-        <v>407.75054709304169</v>
-      </c>
-      <c r="W6" s="2">
-        <v>488.52891349140481</v>
-      </c>
-      <c r="X6" s="2">
-        <v>418.98178447778366</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>468.24806099442503</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>341.75136781305503</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>486.65525236610574</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>355.82828678346976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>438.08247068054311</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>401.95542117870104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>614.33510776059984</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>490.43998800494393</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>318.33636603895837</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>426.35717587910358</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>433.56612211221091</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>425.12338441589338</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>581.11108571153295</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>432.70079609968849</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>488.96790503326741</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>378.63531029257297</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>374.96027506926072</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>513.21565278715423</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>506.41007106901185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>512.90381731302818</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>446.39769246799688</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>325.55917058325588</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>380.51347312315471</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>310.03009408151564</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>330.29204195789629</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>341.15520289949808</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>511.94369892086735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>516.65110758148978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>452.47467018358947</v>
       </c>
     </row>
@@ -2801,7 +2908,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2919,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>6269.3299999999908</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>10976.236666666675</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>17581.626666666703</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>17704.436666666672</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>11.934390766096474</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>20.894529004081217</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>33.468648634482939</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>33.702431595339036</v>
       </c>
     </row>
@@ -2876,103 +2983,358 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2350.6768635419357</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2365.4276538345425</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-14.750790292606876</v>
+      </c>
+      <c r="E2">
+        <v>52531.63</v>
+      </c>
+      <c r="F2">
+        <v>447.47837893892421</v>
+      </c>
+      <c r="G2" s="2">
+        <v>450.28636153771407</v>
+      </c>
+      <c r="H2">
+        <v>-2.807982598789863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>1158.2549679967742</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1166.5812124341667</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-8.3262444373924289</v>
+      </c>
+      <c r="E3">
+        <v>25923.396451612902</v>
+      </c>
+      <c r="F3">
+        <v>446.79907980372298</v>
+      </c>
+      <c r="G3" s="2">
+        <v>450.010944596569</v>
+      </c>
+      <c r="H3">
+        <v>-3.2118647928460291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>361.78223139999994</v>
+      </c>
+      <c r="C4" s="1">
+        <v>372.42728016749999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-10.645048767500045</v>
+      </c>
+      <c r="E4">
+        <v>8263.1900000000023</v>
+      </c>
+      <c r="F4">
+        <v>437.82392925734473</v>
+      </c>
+      <c r="G4" s="2">
+        <v>450.70642229877308</v>
+      </c>
+      <c r="H4">
+        <v>-12.882493041428347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>395.64317780000016</v>
+      </c>
+      <c r="C5" s="1">
+        <v>385.66590640499999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>9.9772713950001641</v>
+      </c>
+      <c r="E5">
+        <v>8644.69</v>
+      </c>
+      <c r="F5">
+        <v>457.67190934550587</v>
+      </c>
+      <c r="G5" s="2">
+        <v>446.13040653279637</v>
+      </c>
+      <c r="H5">
+        <v>11.541502812709496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>14.910047670967741</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.794098427083332</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.115949243884407</v>
+      </c>
+      <c r="E6">
+        <v>283.90322580645142</v>
+      </c>
+      <c r="F6">
+        <v>525.18063606408396</v>
+      </c>
+      <c r="G6" s="2">
+        <v>450.64998436493988</v>
+      </c>
+      <c r="H6">
+        <v>74.530651699144073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>375.81264970000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>382.31731427000011</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-6.5046645700001156</v>
+      </c>
+      <c r="E7">
+        <v>8434.510000000002</v>
+      </c>
+      <c r="F7">
+        <v>445.56548003381334</v>
+      </c>
+      <c r="G7" s="2">
+        <v>453.27744500866089</v>
+      </c>
+      <c r="H7">
+        <v>-7.7119649748475467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>10.106861425806455</v>
+      </c>
+      <c r="C8" s="1">
+        <v>13.376613164583331</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-3.2697517387768764</v>
+      </c>
+      <c r="E8">
+        <v>297.10322580645158</v>
+      </c>
+      <c r="F8">
+        <v>340.18013094178212</v>
+      </c>
+      <c r="G8" s="2">
+        <v>450.23453139137405</v>
+      </c>
+      <c r="H8">
+        <v>-110.05440044959192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9">
+        <v>1192.4218955451618</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1198.8464414003765</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-6.4245458552148191</v>
+      </c>
+      <c r="E9">
+        <v>26608.233548387099</v>
+      </c>
+      <c r="F9">
+        <v>448.14019441641676</v>
+      </c>
+      <c r="G9" s="2">
+        <v>450.55468985578204</v>
+      </c>
+      <c r="H9">
+        <v>-2.4144954393652824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10">
+        <v>381.66264819999998</v>
+      </c>
+      <c r="C10" s="1">
+        <v>379.48257779750003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.1800704024999402</v>
+      </c>
+      <c r="E10">
+        <v>8502.5199999999986</v>
+      </c>
+      <c r="F10">
+        <v>448.88179998400477</v>
+      </c>
+      <c r="G10" s="2">
+        <v>446.31777143423375</v>
+      </c>
+      <c r="H10">
+        <v>2.5640285497710238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>405.37675239999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>399.30817442500012</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.0685779749998821</v>
+      </c>
+      <c r="E11">
+        <v>8791.23</v>
+      </c>
+      <c r="F11">
+        <v>461.11494341519898</v>
+      </c>
+      <c r="G11" s="2">
+        <v>454.21195262210193</v>
+      </c>
+      <c r="H11">
+        <v>6.9029907930970467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>9.5934594451612938</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13.542586742876342</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-3.949127297715048</v>
+      </c>
+      <c r="E12">
+        <v>299.39354838709676</v>
+      </c>
+      <c r="F12">
+        <v>320.42973193121594</v>
+      </c>
+      <c r="G12" s="2">
+        <v>452.3339536150138</v>
+      </c>
+      <c r="H12">
+        <v>-131.90422168379786</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>395.78903550000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>406.51310243500001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-10.72406693500001</v>
+      </c>
+      <c r="E13">
+        <v>9015.0899999999983</v>
+      </c>
+      <c r="F13">
+        <v>439.02948889029403</v>
+      </c>
+      <c r="G13" s="2">
+        <v>450.92517371984093</v>
+      </c>
+      <c r="H13">
+        <v>-11.895684829546894</v>
       </c>
     </row>
   </sheetData>

--- a/江西/导出模板/中长期总体合同分析结果.xlsx
+++ b/江西/导出模板/中长期总体合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDADE030-DF1E-488A-AC6D-CB9F9EB92836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6BAFAF-0607-41BC-BA3F-18116223966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>数据项</t>
   </si>
@@ -730,7 +730,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1667,6 +1667,421 @@
         <v>-96.646383400119703</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>23506768.635419358</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>1018411.7558924729</v>
+      </c>
+      <c r="F12">
+        <v>1045590.9268924731</v>
+      </c>
+      <c r="G12">
+        <v>1133489.1158924731</v>
+      </c>
+      <c r="H12">
+        <v>986536.79689247324</v>
+      </c>
+      <c r="I12">
+        <v>1059911.941892473</v>
+      </c>
+      <c r="J12">
+        <v>966927.29989247303</v>
+      </c>
+      <c r="K12">
+        <v>997482.5438924731</v>
+      </c>
+      <c r="L12">
+        <v>820837.71989247308</v>
+      </c>
+      <c r="M12">
+        <v>963479.54489247303</v>
+      </c>
+      <c r="N12">
+        <v>953095.12389247294</v>
+      </c>
+      <c r="O12">
+        <v>1066407.5888924731</v>
+      </c>
+      <c r="P12">
+        <v>1089188.651892473</v>
+      </c>
+      <c r="Q12">
+        <v>1080261.1638924731</v>
+      </c>
+      <c r="R12">
+        <v>792582.09189247293</v>
+      </c>
+      <c r="S12">
+        <v>957285.65489247302</v>
+      </c>
+      <c r="T12">
+        <v>905350.44889247301</v>
+      </c>
+      <c r="U12">
+        <v>990003.75189247308</v>
+      </c>
+      <c r="V12">
+        <v>959907.65889247321</v>
+      </c>
+      <c r="W12">
+        <v>1107128.9538924731</v>
+      </c>
+      <c r="X12">
+        <v>973923.22289247322</v>
+      </c>
+      <c r="Y12">
+        <v>888953.82889247313</v>
+      </c>
+      <c r="Z12">
+        <v>838276.44289247319</v>
+      </c>
+      <c r="AA12">
+        <v>1013803.8028924732</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>897932.60289247311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>52531.63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2253.5633333333335</v>
+      </c>
+      <c r="F13">
+        <v>2283.7533333333331</v>
+      </c>
+      <c r="G13">
+        <v>2466.0133333333338</v>
+      </c>
+      <c r="H13">
+        <v>2163.3633333333332</v>
+      </c>
+      <c r="I13">
+        <v>2199.2033333333334</v>
+      </c>
+      <c r="J13">
+        <v>2154.8433333333332</v>
+      </c>
+      <c r="K13">
+        <v>2248.2233333333334</v>
+      </c>
+      <c r="L13">
+        <v>1935.4733333333331</v>
+      </c>
+      <c r="M13">
+        <v>2199.4533333333329</v>
+      </c>
+      <c r="N13">
+        <v>2146.3633333333337</v>
+      </c>
+      <c r="O13">
+        <v>2383.5333333333338</v>
+      </c>
+      <c r="P13">
+        <v>2227.8933333333334</v>
+      </c>
+      <c r="Q13">
+        <v>2310.9733333333334</v>
+      </c>
+      <c r="R13">
+        <v>1931.0533333333335</v>
+      </c>
+      <c r="S13">
+        <v>2179.5033333333331</v>
+      </c>
+      <c r="T13">
+        <v>2138.6833333333334</v>
+      </c>
+      <c r="U13">
+        <v>2150.4733333333334</v>
+      </c>
+      <c r="V13">
+        <v>2196.2133333333336</v>
+      </c>
+      <c r="W13">
+        <v>2254.5933333333332</v>
+      </c>
+      <c r="X13">
+        <v>2201.6133333333332</v>
+      </c>
+      <c r="Y13">
+        <v>1979.1233333333334</v>
+      </c>
+      <c r="Z13">
+        <v>2088.5933333333332</v>
+      </c>
+      <c r="AA13">
+        <v>2236.2733333333335</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>2202.8533333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>447.47837893892421</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>451.91175274674902</v>
+      </c>
+      <c r="F14">
+        <v>457.83881806812462</v>
+      </c>
+      <c r="G14">
+        <v>459.64435819182091</v>
+      </c>
+      <c r="H14">
+        <v>456.01993049055096</v>
+      </c>
+      <c r="I14">
+        <v>481.95268069458774</v>
+      </c>
+      <c r="J14">
+        <v>448.72278412775859</v>
+      </c>
+      <c r="K14">
+        <v>443.67591471153065</v>
+      </c>
+      <c r="L14">
+        <v>424.10179760978701</v>
+      </c>
+      <c r="M14">
+        <v>438.0540974844385</v>
+      </c>
+      <c r="N14">
+        <v>444.05115811045016</v>
+      </c>
+      <c r="O14">
+        <v>447.40619901510627</v>
+      </c>
+      <c r="P14">
+        <v>488.88725308174821</v>
+      </c>
+      <c r="Q14">
+        <v>467.44856304088597</v>
+      </c>
+      <c r="R14">
+        <v>410.44029090814314</v>
+      </c>
+      <c r="S14">
+        <v>439.22192742343736</v>
+      </c>
+      <c r="T14">
+        <v>423.32141218934061</v>
+      </c>
+      <c r="U14">
+        <v>460.36550955873577</v>
+      </c>
+      <c r="V14">
+        <v>437.07396013098594</v>
+      </c>
+      <c r="W14">
+        <v>491.05483349213301</v>
+      </c>
+      <c r="X14">
+        <v>442.36797086340016</v>
+      </c>
+      <c r="Y14">
+        <v>449.16545316822419</v>
+      </c>
+      <c r="Z14">
+        <v>401.35934052542854</v>
+      </c>
+      <c r="AA14">
+        <v>453.34520954168084</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>407.62250909084872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>450.28636153771407</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>374.72357941746401</v>
+      </c>
+      <c r="F15">
+        <v>455.84642000681441</v>
+      </c>
+      <c r="G15">
+        <v>389.83580164655859</v>
+      </c>
+      <c r="H15">
+        <v>288.19833291926119</v>
+      </c>
+      <c r="I15">
+        <v>351.97539276832947</v>
+      </c>
+      <c r="J15">
+        <v>373.50400316475128</v>
+      </c>
+      <c r="K15">
+        <v>412.66298705053936</v>
+      </c>
+      <c r="L15">
+        <v>538.43381326340011</v>
+      </c>
+      <c r="M15">
+        <v>480.06489564819037</v>
+      </c>
+      <c r="N15">
+        <v>498.17269445720103</v>
+      </c>
+      <c r="O15">
+        <v>412.60364807261823</v>
+      </c>
+      <c r="P15">
+        <v>386.01655236421328</v>
+      </c>
+      <c r="Q15">
+        <v>406.55176247718219</v>
+      </c>
+      <c r="R15">
+        <v>404.29629584236881</v>
+      </c>
+      <c r="S15">
+        <v>448.33806449947838</v>
+      </c>
+      <c r="T15">
+        <v>462.12894640331166</v>
+      </c>
+      <c r="U15">
+        <v>457.72167336284605</v>
+      </c>
+      <c r="V15">
+        <v>522.43917614287864</v>
+      </c>
+      <c r="W15">
+        <v>536.82821014487604</v>
+      </c>
+      <c r="X15">
+        <v>527.92593164340769</v>
+      </c>
+      <c r="Y15">
+        <v>551.68822565099833</v>
+      </c>
+      <c r="Z15">
+        <v>582.31465879174073</v>
+      </c>
+      <c r="AA15">
+        <v>534.99808874735038</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>441.25127679882041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>-2.807982598789863</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>77.188173329285007</v>
+      </c>
+      <c r="F16">
+        <v>1.9923980613102117</v>
+      </c>
+      <c r="G16">
+        <v>69.80855654526232</v>
+      </c>
+      <c r="H16">
+        <v>167.82159757128977</v>
+      </c>
+      <c r="I16">
+        <v>129.97728792625827</v>
+      </c>
+      <c r="J16">
+        <v>75.218780963007305</v>
+      </c>
+      <c r="K16">
+        <v>31.012927660991295</v>
+      </c>
+      <c r="L16">
+        <v>-114.3320156536131</v>
+      </c>
+      <c r="M16">
+        <v>-42.010798163751872</v>
+      </c>
+      <c r="N16">
+        <v>-54.121536346750872</v>
+      </c>
+      <c r="O16">
+        <v>34.80255094248804</v>
+      </c>
+      <c r="P16">
+        <v>102.87070071753493</v>
+      </c>
+      <c r="Q16">
+        <v>60.896800563703778</v>
+      </c>
+      <c r="R16">
+        <v>6.1439950657743339</v>
+      </c>
+      <c r="S16">
+        <v>-9.1161370760410136</v>
+      </c>
+      <c r="T16">
+        <v>-38.807534213971053</v>
+      </c>
+      <c r="U16">
+        <v>2.643836195889719</v>
+      </c>
+      <c r="V16">
+        <v>-85.365216011892699</v>
+      </c>
+      <c r="W16">
+        <v>-45.773376652743025</v>
+      </c>
+      <c r="X16">
+        <v>-85.557960780007534</v>
+      </c>
+      <c r="Y16">
+        <v>-102.52277248277414</v>
+      </c>
+      <c r="Z16">
+        <v>-180.95531826631219</v>
+      </c>
+      <c r="AA16">
+        <v>-81.652879205669535</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-33.62876770797169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,7 +2093,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2275,7 +2690,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>23506768.635419358</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>1018411.7558924729</v>
+      </c>
+      <c r="F8">
+        <v>1045590.9268924731</v>
+      </c>
+      <c r="G8">
+        <v>1133489.1158924731</v>
+      </c>
+      <c r="H8">
+        <v>986536.79689247324</v>
+      </c>
+      <c r="I8">
+        <v>1059911.941892473</v>
+      </c>
+      <c r="J8">
+        <v>966927.29989247303</v>
+      </c>
+      <c r="K8">
+        <v>997482.5438924731</v>
+      </c>
+      <c r="L8">
+        <v>820837.71989247308</v>
+      </c>
+      <c r="M8">
+        <v>963479.54489247303</v>
+      </c>
+      <c r="N8">
+        <v>953095.12389247294</v>
+      </c>
+      <c r="O8">
+        <v>1066407.5888924731</v>
+      </c>
+      <c r="P8">
+        <v>1089188.651892473</v>
+      </c>
+      <c r="Q8">
+        <v>1080261.1638924731</v>
+      </c>
+      <c r="R8">
+        <v>792582.09189247293</v>
+      </c>
+      <c r="S8">
+        <v>957285.65489247302</v>
+      </c>
+      <c r="T8">
+        <v>905350.44889247301</v>
+      </c>
+      <c r="U8">
+        <v>990003.75189247308</v>
+      </c>
+      <c r="V8">
+        <v>959907.65889247321</v>
+      </c>
+      <c r="W8">
+        <v>1107128.9538924731</v>
+      </c>
+      <c r="X8">
+        <v>973923.22289247322</v>
+      </c>
+      <c r="Y8">
+        <v>888953.82889247313</v>
+      </c>
+      <c r="Z8">
+        <v>838276.44289247319</v>
+      </c>
+      <c r="AA8">
+        <v>1013803.8028924732</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>897932.60289247311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>23654276.538345426</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>844463.3187106183</v>
+      </c>
+      <c r="F9">
+        <v>1041040.781178629</v>
+      </c>
+      <c r="G9">
+        <v>961340.2846711023</v>
+      </c>
+      <c r="H9">
+        <v>623477.70616532257</v>
+      </c>
+      <c r="I9">
+        <v>774065.45702741935</v>
+      </c>
+      <c r="J9">
+        <v>804842.61119287647</v>
+      </c>
+      <c r="K9">
+        <v>927758.55629005376</v>
+      </c>
+      <c r="L9">
+        <v>1042124.2873362903</v>
+      </c>
+      <c r="M9">
+        <v>1055880.3349497309</v>
+      </c>
+      <c r="N9">
+        <v>1069259.6050508064</v>
+      </c>
+      <c r="O9">
+        <v>983454.54863602144</v>
+      </c>
+      <c r="P9">
+        <v>860003.70356854843</v>
+      </c>
+      <c r="Q9">
+        <v>939530.28170443536</v>
+      </c>
+      <c r="R9">
+        <v>780717.70974072581</v>
+      </c>
+      <c r="S9">
+        <v>977154.30603682797</v>
+      </c>
+      <c r="T9">
+        <v>988347.475523656</v>
+      </c>
+      <c r="U9">
+        <v>984318.25265551079</v>
+      </c>
+      <c r="V9">
+        <v>1147387.8845006721</v>
+      </c>
+      <c r="W9">
+        <v>1210329.3037379032</v>
+      </c>
+      <c r="X9">
+        <v>1162288.7701185483</v>
+      </c>
+      <c r="Y9">
+        <v>1091859.0401111559</v>
+      </c>
+      <c r="Z9">
+        <v>1216218.5142547044</v>
+      </c>
+      <c r="AA9">
+        <v>1196401.9592499998</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>972011.84593387099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>173948.43718185462</v>
+      </c>
+      <c r="F10">
+        <v>4550.1457138441037</v>
+      </c>
+      <c r="G10">
+        <v>172148.83122137084</v>
+      </c>
+      <c r="H10">
+        <v>363059.09072715067</v>
+      </c>
+      <c r="I10">
+        <v>285846.48486505367</v>
+      </c>
+      <c r="J10">
+        <v>162084.68869959656</v>
+      </c>
+      <c r="K10">
+        <v>69723.987602419336</v>
+      </c>
+      <c r="L10">
+        <v>-221286.56744381727</v>
+      </c>
+      <c r="M10">
+        <v>-92400.790057257866</v>
+      </c>
+      <c r="N10">
+        <v>-116164.48115833348</v>
+      </c>
+      <c r="O10">
+        <v>82953.040256451699</v>
+      </c>
+      <c r="P10">
+        <v>229184.94832392456</v>
+      </c>
+      <c r="Q10">
+        <v>140730.88218803774</v>
+      </c>
+      <c r="R10">
+        <v>11864.382151747122</v>
+      </c>
+      <c r="S10">
+        <v>-19868.651144354953</v>
+      </c>
+      <c r="T10">
+        <v>-82997.026631182991</v>
+      </c>
+      <c r="U10">
+        <v>5685.4992369622923</v>
+      </c>
+      <c r="V10">
+        <v>-187480.2256081989</v>
+      </c>
+      <c r="W10">
+        <v>-103200.34984543012</v>
+      </c>
+      <c r="X10">
+        <v>-188365.54722607508</v>
+      </c>
+      <c r="Y10">
+        <v>-202905.21121868282</v>
+      </c>
+      <c r="Z10">
+        <v>-377942.07136223116</v>
+      </c>
+      <c r="AA10">
+        <v>-182598.15635752666</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-74079.243041397887</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2288,7 +2946,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2887,6 +3545,255 @@
       </c>
       <c r="AB7" s="1">
         <v>452.47467018358947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>52531.63</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2253.5633333333335</v>
+      </c>
+      <c r="F8">
+        <v>2283.7533333333331</v>
+      </c>
+      <c r="G8">
+        <v>2466.0133333333338</v>
+      </c>
+      <c r="H8">
+        <v>2163.3633333333332</v>
+      </c>
+      <c r="I8">
+        <v>2199.2033333333334</v>
+      </c>
+      <c r="J8">
+        <v>2154.8433333333332</v>
+      </c>
+      <c r="K8">
+        <v>2248.2233333333334</v>
+      </c>
+      <c r="L8">
+        <v>1935.4733333333331</v>
+      </c>
+      <c r="M8">
+        <v>2199.4533333333329</v>
+      </c>
+      <c r="N8">
+        <v>2146.3633333333337</v>
+      </c>
+      <c r="O8">
+        <v>2383.5333333333338</v>
+      </c>
+      <c r="P8">
+        <v>2227.8933333333334</v>
+      </c>
+      <c r="Q8">
+        <v>2310.9733333333334</v>
+      </c>
+      <c r="R8">
+        <v>1931.0533333333335</v>
+      </c>
+      <c r="S8">
+        <v>2179.5033333333331</v>
+      </c>
+      <c r="T8">
+        <v>2138.6833333333334</v>
+      </c>
+      <c r="U8">
+        <v>2150.4733333333334</v>
+      </c>
+      <c r="V8">
+        <v>2196.2133333333336</v>
+      </c>
+      <c r="W8">
+        <v>2254.5933333333332</v>
+      </c>
+      <c r="X8">
+        <v>2201.6133333333332</v>
+      </c>
+      <c r="Y8">
+        <v>1979.1233333333334</v>
+      </c>
+      <c r="Z8">
+        <v>2088.5933333333332</v>
+      </c>
+      <c r="AA8">
+        <v>2236.2733333333335</v>
+      </c>
+      <c r="AB8">
+        <v>2202.8533333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>447.47837893892421</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>451.91175274674902</v>
+      </c>
+      <c r="F9">
+        <v>457.83881806812462</v>
+      </c>
+      <c r="G9">
+        <v>459.64435819182091</v>
+      </c>
+      <c r="H9">
+        <v>456.01993049055096</v>
+      </c>
+      <c r="I9">
+        <v>481.95268069458774</v>
+      </c>
+      <c r="J9">
+        <v>448.72278412775859</v>
+      </c>
+      <c r="K9">
+        <v>443.67591471153065</v>
+      </c>
+      <c r="L9">
+        <v>424.10179760978701</v>
+      </c>
+      <c r="M9">
+        <v>438.0540974844385</v>
+      </c>
+      <c r="N9">
+        <v>444.05115811045016</v>
+      </c>
+      <c r="O9">
+        <v>447.40619901510627</v>
+      </c>
+      <c r="P9">
+        <v>488.88725308174821</v>
+      </c>
+      <c r="Q9">
+        <v>467.44856304088597</v>
+      </c>
+      <c r="R9">
+        <v>410.44029090814314</v>
+      </c>
+      <c r="S9">
+        <v>439.22192742343736</v>
+      </c>
+      <c r="T9">
+        <v>423.32141218934061</v>
+      </c>
+      <c r="U9">
+        <v>460.36550955873577</v>
+      </c>
+      <c r="V9">
+        <v>437.07396013098594</v>
+      </c>
+      <c r="W9">
+        <v>491.05483349213301</v>
+      </c>
+      <c r="X9">
+        <v>442.36797086340016</v>
+      </c>
+      <c r="Y9">
+        <v>449.16545316822419</v>
+      </c>
+      <c r="Z9">
+        <v>401.35934052542854</v>
+      </c>
+      <c r="AA9">
+        <v>453.34520954168084</v>
+      </c>
+      <c r="AB9">
+        <v>407.62250909084872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>450.28636153771407</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>374.72357941746401</v>
+      </c>
+      <c r="F10">
+        <v>455.84642000681441</v>
+      </c>
+      <c r="G10">
+        <v>389.83580164655859</v>
+      </c>
+      <c r="H10">
+        <v>288.19833291926119</v>
+      </c>
+      <c r="I10">
+        <v>351.97539276832947</v>
+      </c>
+      <c r="J10">
+        <v>373.50400316475128</v>
+      </c>
+      <c r="K10">
+        <v>412.66298705053936</v>
+      </c>
+      <c r="L10">
+        <v>538.43381326340011</v>
+      </c>
+      <c r="M10">
+        <v>480.06489564819037</v>
+      </c>
+      <c r="N10">
+        <v>498.17269445720103</v>
+      </c>
+      <c r="O10">
+        <v>412.60364807261823</v>
+      </c>
+      <c r="P10">
+        <v>386.01655236421328</v>
+      </c>
+      <c r="Q10">
+        <v>406.55176247718219</v>
+      </c>
+      <c r="R10">
+        <v>404.29629584236881</v>
+      </c>
+      <c r="S10">
+        <v>448.33806449947838</v>
+      </c>
+      <c r="T10">
+        <v>462.12894640331166</v>
+      </c>
+      <c r="U10">
+        <v>457.72167336284605</v>
+      </c>
+      <c r="V10">
+        <v>522.43917614287864</v>
+      </c>
+      <c r="W10">
+        <v>536.82821014487604</v>
+      </c>
+      <c r="X10">
+        <v>527.92593164340769</v>
+      </c>
+      <c r="Y10">
+        <v>551.68822565099833</v>
+      </c>
+      <c r="Z10">
+        <v>582.31465879174073</v>
+      </c>
+      <c r="AA10">
+        <v>534.99808874735038</v>
+      </c>
+      <c r="AB10">
+        <v>441.25127679882041</v>
       </c>
     </row>
   </sheetData>
